--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/运输仓储邮政、信息传输、计算机服务和软件业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/运输仓储邮政、信息传输、计算机服务和软件业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,232 +523,174 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.051684789515627</v>
+        <v>0.059899052950833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.048323341087615</v>
+        <v>0.053050070080761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.040421225572966</v>
+        <v>0.059910701395037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.107180623936851</v>
+        <v>0.125785479437689</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005369143876286</v>
+        <v>0.007284643310817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.043567710540205</v>
+        <v>0.061163145389837</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06829207339966099</v>
+        <v>0.08245891345599</v>
       </c>
       <c r="I2" t="n">
-        <v>0.302769772648688</v>
+        <v>0.319310377529861</v>
       </c>
       <c r="J2" t="n">
-        <v>0.198625444736948</v>
+        <v>0.197694245535748</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08987107510664399</v>
+        <v>0.095200056962942</v>
       </c>
       <c r="L2" t="n">
-        <v>0.027334374130652</v>
+        <v>0.031359576101336</v>
       </c>
       <c r="M2" t="n">
-        <v>0.126409067212811</v>
+        <v>0.156239427258299</v>
       </c>
       <c r="N2" t="n">
-        <v>0.17629463203455</v>
+        <v>0.20396811287195</v>
       </c>
       <c r="O2" t="n">
-        <v>0.127172829294626</v>
+        <v>0.131216739230714</v>
       </c>
       <c r="P2" t="n">
-        <v>0.070776057171095</v>
+        <v>0.087335570934921</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.015379373399938</v>
+        <v>0.020026862060027</v>
       </c>
       <c r="R2" t="n">
-        <v>0.030804956328023</v>
+        <v>0.03905926118269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.059899052950833</v>
+        <v>0.057839471251243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.053050070080761</v>
+        <v>0.05303635861846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.059910701395037</v>
+        <v>0.048791633372738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125785479437689</v>
+        <v>0.113336995085637</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007284643310817</v>
+        <v>0.013646277499642</v>
       </c>
       <c r="G3" t="n">
-        <v>0.061163145389837</v>
+        <v>0.08812667263349901</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08245891345599</v>
+        <v>0.088818275723463</v>
       </c>
       <c r="I3" t="n">
-        <v>0.319310377529861</v>
+        <v>0.283065036292679</v>
       </c>
       <c r="J3" t="n">
-        <v>0.197694245535748</v>
+        <v>0.177283601888508</v>
       </c>
       <c r="K3" t="n">
-        <v>0.095200056962942</v>
+        <v>0.068014256730015</v>
       </c>
       <c r="L3" t="n">
-        <v>0.031359576101336</v>
+        <v>0.023776695291034</v>
       </c>
       <c r="M3" t="n">
-        <v>0.156239427258299</v>
+        <v>0.223270567851532</v>
       </c>
       <c r="N3" t="n">
-        <v>0.20396811287195</v>
+        <v>0.170804346638574</v>
       </c>
       <c r="O3" t="n">
-        <v>0.131216739230714</v>
+        <v>0.120977170521168</v>
       </c>
       <c r="P3" t="n">
-        <v>0.087335570934921</v>
+        <v>0.132906208926335</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.020026862060027</v>
+        <v>0.016595245490989</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03905926118269</v>
+        <v>0.045320513686835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.057839471251243</v>
+        <v>0.061952223365767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05303635861846</v>
+        <v>0.05657698633882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.048791633372738</v>
+        <v>0.054043581308187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.113336995085637</v>
+        <v>0.11382799302343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.013646277499642</v>
+        <v>0.013193386190957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08812667263349901</v>
+        <v>0.113416737236116</v>
       </c>
       <c r="H4" t="n">
-        <v>0.088818275723463</v>
+        <v>0.106794533682708</v>
       </c>
       <c r="I4" t="n">
-        <v>0.283065036292679</v>
+        <v>0.314953863124511</v>
       </c>
       <c r="J4" t="n">
-        <v>0.177283601888508</v>
+        <v>0.126986825870109</v>
       </c>
       <c r="K4" t="n">
-        <v>0.068014256730015</v>
+        <v>0.063158155523114</v>
       </c>
       <c r="L4" t="n">
-        <v>0.023776695291034</v>
+        <v>0.028102388385212</v>
       </c>
       <c r="M4" t="n">
-        <v>0.223270567851532</v>
+        <v>0.252844805615277</v>
       </c>
       <c r="N4" t="n">
-        <v>0.170804346638574</v>
+        <v>0.097964647040841</v>
       </c>
       <c r="O4" t="n">
-        <v>0.120977170521168</v>
+        <v>0.104586481928151</v>
       </c>
       <c r="P4" t="n">
-        <v>0.132906208926335</v>
+        <v>0.144410337940475</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.016595245490989</v>
+        <v>0.016965670794479</v>
       </c>
       <c r="R4" t="n">
-        <v>0.045320513686835</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.061952223365767</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05657698633882</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.054043581308187</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.11382799302343</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.013193386190957</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.113416737236116</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.106794533682708</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.314953863124511</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.126986825870109</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.063158155523114</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.028102388385212</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.252844805615277</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.097964647040841</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.104586481928151</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.144410337940475</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.016965670794479</v>
-      </c>
-      <c r="R5" t="n">
         <v>0.058192343804214</v>
       </c>
     </row>
